--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Drive\Cornell College\Cornell Classes\Data Science\DSC223PrepRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F819D90-7933-4739-9D3E-831FD820B175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999C623-C0D6-4FEA-B120-DD3E7FFEA267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BFD0430B-DEAD-45BC-BB8C-91E8210F1C42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>TFT</t>
+  </si>
+  <si>
+    <t>10-10:30</t>
+  </si>
+  <si>
+    <t>10:30-11</t>
+  </si>
+  <si>
+    <t>9:30-10</t>
+  </si>
+  <si>
+    <t>9-9:30</t>
+  </si>
+  <si>
+    <t>8:30-9</t>
+  </si>
+  <si>
+    <t>11-11:30</t>
   </si>
 </sst>
 </file>
@@ -129,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060D76C3-E87F-455D-ADD5-B13B26FF673A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,7 +475,7 @@
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,8 +496,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -488,8 +510,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -499,8 +524,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -510,24 +538,33 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -537,8 +574,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -548,8 +588,11 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -559,8 +602,11 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -570,8 +616,11 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -581,8 +630,11 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>4</v>
       </c>
@@ -590,7 +642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -600,8 +652,11 @@
       <c r="C14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -611,13 +666,16 @@
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -627,8 +685,11 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -639,7 +700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>6</v>
       </c>

--- a/Teams.xlsx
+++ b/Teams.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Drive\Cornell College\Cornell Classes\Data Science\DSC223PrepRep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\My Drive\Cornell College\Cornell Classes\Data Science\DSC223_Fall2022_CornellCollege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999C623-C0D6-4FEA-B120-DD3E7FFEA267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD3FF2-0B32-4B65-B66E-B37CC32B620F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{BFD0430B-DEAD-45BC-BB8C-91E8210F1C42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -33,66 +33,21 @@
     <t>Team #</t>
   </si>
   <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
     <t>Wheat</t>
   </si>
   <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
     <t>Dynomite</t>
   </si>
   <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>Erlang</t>
-  </si>
-  <si>
-    <t>Zhifei</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>Tian</t>
-  </si>
-  <si>
     <t>TFT</t>
   </si>
   <si>
@@ -112,6 +67,63 @@
   </si>
   <si>
     <t>11-11:30</t>
+  </si>
+  <si>
+    <t>student 1</t>
+  </si>
+  <si>
+    <t>student 4</t>
+  </si>
+  <si>
+    <t>student 5</t>
+  </si>
+  <si>
+    <t>student 6</t>
+  </si>
+  <si>
+    <t>student 2</t>
+  </si>
+  <si>
+    <t>student 3</t>
+  </si>
+  <si>
+    <t>student 7</t>
+  </si>
+  <si>
+    <t>student 8</t>
+  </si>
+  <si>
+    <t>student 9</t>
+  </si>
+  <si>
+    <t>student 10</t>
+  </si>
+  <si>
+    <t>student 11</t>
+  </si>
+  <si>
+    <t>student 12</t>
+  </si>
+  <si>
+    <t>student 13</t>
+  </si>
+  <si>
+    <t>student 14</t>
+  </si>
+  <si>
+    <t>student 15</t>
+  </si>
+  <si>
+    <t>student 16</t>
+  </si>
+  <si>
+    <t>student 17</t>
+  </si>
+  <si>
+    <t>student 18</t>
+  </si>
+  <si>
+    <t>Meeting Time</t>
   </si>
 </sst>
 </file>
@@ -473,6 +485,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -485,227 +498,239 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
       <c r="B16">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
